--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_19_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_19_9.xlsx
@@ -518,606 +518,606 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_17</t>
+          <t>model_19_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9619742306499509</v>
+        <v>0.9504052020690517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8073575617268788</v>
+        <v>0.8142596886232549</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9296546263268464</v>
+        <v>0.9578967781952483</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7200837848671321</v>
+        <v>0.810355618899391</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9191692552704108</v>
+        <v>0.9454620330333482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2542784947363463</v>
+        <v>0.3316406421272983</v>
       </c>
       <c r="H2" t="n">
-        <v>1.288200871769226</v>
+        <v>1.242046317431787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3261369983801833</v>
+        <v>0.519022215155732</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7079502184131269</v>
+        <v>0.2944045938354512</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5170436640900427</v>
+        <v>0.4067134044955916</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47982059616922</v>
+        <v>1.230158306713761</v>
       </c>
       <c r="M2" t="n">
-        <v>0.504260344203613</v>
+        <v>0.5758824898599525</v>
       </c>
       <c r="N2" t="n">
-        <v>1.017219216309456</v>
+        <v>1.02245802170458</v>
       </c>
       <c r="O2" t="n">
-        <v>0.525727751019176</v>
+        <v>0.6003989996943865</v>
       </c>
       <c r="P2" t="n">
-        <v>156.7386503532813</v>
+        <v>156.2074065990362</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.5920888681327</v>
+        <v>250.0608451138877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_16</t>
+          <t>model_19_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9618953169759693</v>
+        <v>0.9503457210420178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8073564898867319</v>
+        <v>0.8137661097033726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9306254056556599</v>
+        <v>0.9564519713928423</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7214565261718227</v>
+        <v>0.8039437504459422</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9197924322152987</v>
+        <v>0.9436005077252028</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2548061908376253</v>
+        <v>0.332038392028959</v>
       </c>
       <c r="H3" t="n">
-        <v>1.288208039169224</v>
+        <v>1.245346881941763</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3216362467336029</v>
+        <v>0.5368328907979504</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7044783491396046</v>
+        <v>0.3043584006227056</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5130574371656318</v>
+        <v>0.4205956105575351</v>
       </c>
       <c r="L3" t="n">
-        <v>1.492546990619043</v>
+        <v>1.219870720841116</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5047833107756489</v>
+        <v>0.5762277258419271</v>
       </c>
       <c r="N3" t="n">
-        <v>1.017254950803335</v>
+        <v>1.022484956509275</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5262729813608735</v>
+        <v>0.6007589330868507</v>
       </c>
       <c r="P3" t="n">
-        <v>156.7345041174567</v>
+        <v>156.2050093562197</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.5879426323081</v>
+        <v>250.0584478710711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_18</t>
+          <t>model_19_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9620446353823771</v>
+        <v>0.9502571002689248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8073519198864419</v>
+        <v>0.8132580317493873</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9286603614172524</v>
+        <v>0.9549675434435735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7187017423509704</v>
+        <v>0.7973820474513089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9185357240866153</v>
+        <v>0.9416906300740758</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2538076979664287</v>
+        <v>0.3326309995466918</v>
       </c>
       <c r="H4" t="n">
-        <v>1.288238598782206</v>
+        <v>1.248744401559546</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3307466344696346</v>
+        <v>0.5551319911860741</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7114456118497252</v>
+        <v>0.3145448110704744</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5210961231596799</v>
+        <v>0.4348384011282743</v>
       </c>
       <c r="L4" t="n">
-        <v>1.467223835081986</v>
+        <v>1.20965793614134</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5037933087749664</v>
+        <v>0.5767417095604338</v>
       </c>
       <c r="N4" t="n">
-        <v>1.017187334921188</v>
+        <v>1.022525086670675</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5252408329254353</v>
+        <v>0.6012947981563472</v>
       </c>
       <c r="P4" t="n">
-        <v>156.7423567866497</v>
+        <v>156.2014430257566</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.5957953015011</v>
+        <v>250.0548815406081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_15</t>
+          <t>model_19_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9618076225758464</v>
+        <v>0.9501391891190596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8073484458654756</v>
+        <v>0.8127342029967569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9315718017133081</v>
+        <v>0.9534435270662464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7228196981173567</v>
+        <v>0.7906610471746511</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9204049157682618</v>
+        <v>0.9397314563415504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2553926036950432</v>
+        <v>0.3334194719487718</v>
       </c>
       <c r="H5" t="n">
-        <v>1.288261829576404</v>
+        <v>1.252247246840395</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3172485414247314</v>
+        <v>0.5739191129831214</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7010306822149953</v>
+        <v>0.3249785151704006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5091396118198634</v>
+        <v>0.449448814076761</v>
       </c>
       <c r="L5" t="n">
-        <v>1.50540375556107</v>
+        <v>1.199511474133219</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5053638329906912</v>
+        <v>0.5774248626001237</v>
       </c>
       <c r="N5" t="n">
-        <v>1.017294661475088</v>
+        <v>1.022578480398916</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5268782176084568</v>
+        <v>0.6020070344352585</v>
       </c>
       <c r="P5" t="n">
-        <v>156.7299065909871</v>
+        <v>156.1967078124108</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.5833451058385</v>
+        <v>250.0501463272623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_19</t>
+          <t>model_19_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9621067830739238</v>
+        <v>0.9499920120298774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8073397857249748</v>
+        <v>0.8121933230151643</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9276438383080228</v>
+        <v>0.9518804323588735</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7173113566303913</v>
+        <v>0.7837739702079777</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9178924685008815</v>
+        <v>0.9377226977881504</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2533921160668914</v>
+        <v>0.3344036458218215</v>
       </c>
       <c r="H6" t="n">
-        <v>1.28831973997581</v>
+        <v>1.255864113767828</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3354594645864894</v>
+        <v>0.5931879680194663</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7149621065054395</v>
+        <v>0.3356700372989225</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5252107855459645</v>
+        <v>0.4644290026591944</v>
       </c>
       <c r="L6" t="n">
-        <v>1.454753458438038</v>
+        <v>1.189432451407289</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5033806870221497</v>
+        <v>0.5782764441180546</v>
       </c>
       <c r="N6" t="n">
-        <v>1.017159192570299</v>
+        <v>1.02264512662798</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5248106450103563</v>
+        <v>0.6028948695414245</v>
       </c>
       <c r="P6" t="n">
-        <v>156.7456342483603</v>
+        <v>156.1908129905076</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.5990727632118</v>
+        <v>250.0442515053591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_14</t>
+          <t>model_19_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9617109409541181</v>
+        <v>0.9498156475585919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8073333140508654</v>
+        <v>0.8116341248360007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9324932750957807</v>
+        <v>0.9502787112258835</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7241725484677779</v>
+        <v>0.7767147991995769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9210063051471103</v>
+        <v>0.9356641016083471</v>
       </c>
       <c r="G7" t="n">
-        <v>0.256039114144718</v>
+        <v>0.3355829958533909</v>
       </c>
       <c r="H7" t="n">
-        <v>1.288363016090378</v>
+        <v>1.259603474566765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3129763832520675</v>
+        <v>0.6129329854996355</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6976091201571974</v>
+        <v>0.3466287188136712</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5052927517046324</v>
+        <v>0.4797808521566533</v>
       </c>
       <c r="L7" t="n">
-        <v>1.519003380737308</v>
+        <v>1.179409117013358</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5060030772087439</v>
+        <v>0.5792952579241356</v>
       </c>
       <c r="N7" t="n">
-        <v>1.017338441832097</v>
+        <v>1.022724989784789</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5275446757762899</v>
+        <v>0.6039570563604657</v>
       </c>
       <c r="P7" t="n">
-        <v>156.7248501130918</v>
+        <v>156.1837719471417</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.5782886279433</v>
+        <v>250.0372104619932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_20</t>
+          <t>model_19_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9621609320055431</v>
+        <v>0.9496105218147266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8073213161715808</v>
+        <v>0.8110554374692684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.926605917211284</v>
+        <v>0.9486393540469125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7159130853934783</v>
+        <v>0.7694794702637641</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9172398994399885</v>
+        <v>0.9335560633798656</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2530300219118204</v>
+        <v>0.3369546726471356</v>
       </c>
       <c r="H8" t="n">
-        <v>1.2884432459644</v>
+        <v>1.263473159652715</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3402715005935569</v>
+        <v>0.6331419566421941</v>
       </c>
       <c r="J8" t="n">
-        <v>0.718498544818252</v>
+        <v>0.3578608685048545</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5293850227059045</v>
+        <v>0.4955014125735243</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44240671621057</v>
+        <v>1.169442981324517</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5030208960985819</v>
+        <v>0.5804779691315903</v>
       </c>
       <c r="N8" t="n">
-        <v>1.017134672299377</v>
+        <v>1.022817876914086</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5244355370423025</v>
+        <v>0.6051901180325715</v>
       </c>
       <c r="P8" t="n">
-        <v>156.748494267223</v>
+        <v>156.1756137204136</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.6019327820744</v>
+        <v>250.0290522352651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_13</t>
+          <t>model_19_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9616049912829698</v>
+        <v>0.9493769574223485</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8073108131072578</v>
+        <v>0.8104562454447102</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9333885613402191</v>
+        <v>0.9469632882874942</v>
       </c>
       <c r="E9" t="n">
-        <v>0.72551411153686</v>
+        <v>0.7620662368734991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9215959729704544</v>
+        <v>0.9313991678815041</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2567476000835398</v>
+        <v>0.3385165188144335</v>
       </c>
       <c r="H9" t="n">
-        <v>1.28851348000389</v>
+        <v>1.267479959479962</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3088256345502575</v>
+        <v>0.6538034482314613</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6942161053319548</v>
+        <v>0.3693691976870967</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5015208699411061</v>
+        <v>0.511586322959279</v>
       </c>
       <c r="L9" t="n">
-        <v>1.532920510085538</v>
+        <v>1.159519004405797</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5067026742415515</v>
+        <v>0.5818217242544605</v>
       </c>
       <c r="N9" t="n">
-        <v>1.017386419041674</v>
+        <v>1.022923641921955</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5282740561031496</v>
+        <v>0.6065910795929789</v>
       </c>
       <c r="P9" t="n">
-        <v>156.7193235550124</v>
+        <v>156.1663647755557</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.5727620698638</v>
+        <v>250.0198032904071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_21</t>
+          <t>model_19_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9622072343476941</v>
+        <v>0.9491153813089316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8072966978069158</v>
+        <v>0.8098356824035968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9255474736453316</v>
+        <v>0.9452514184323396</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7145061169796505</v>
+        <v>0.754475781319538</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9165781737280023</v>
+        <v>0.9291942336997578</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2527203979366544</v>
+        <v>0.3402656794892996</v>
       </c>
       <c r="H10" t="n">
-        <v>1.288607869082272</v>
+        <v>1.271629667393317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3451786833907999</v>
+        <v>0.6749063103449823</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7220569795998774</v>
+        <v>0.3811526471698654</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5336178314953386</v>
+        <v>0.5280294787574238</v>
       </c>
       <c r="L10" t="n">
-        <v>1.430185890769259</v>
+        <v>1.149718708422554</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5027130373649109</v>
+        <v>0.5833229632796052</v>
       </c>
       <c r="N10" t="n">
-        <v>1.017113705201044</v>
+        <v>1.023042091482748</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5241145721249837</v>
+        <v>0.608156229471417</v>
       </c>
       <c r="P10" t="n">
-        <v>156.7509430957495</v>
+        <v>156.1560571125027</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.6043816106009</v>
+        <v>250.0094956273541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_12</t>
+          <t>model_19_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9614894727500777</v>
+        <v>0.9488266040615398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8072807497411967</v>
+        <v>0.8091932128750847</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9342565505436033</v>
+        <v>0.9435050668713337</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7268440148274413</v>
+        <v>0.7467106762593239</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9221734433728734</v>
+        <v>0.9269426215837081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2575200730449033</v>
+        <v>0.342196734272305</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28871451387117</v>
+        <v>1.275925864088777</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3048014410797184</v>
+        <v>0.6964342413863942</v>
       </c>
       <c r="J11" t="n">
-        <v>0.690852579840627</v>
+        <v>0.3932072231508387</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4978270104601727</v>
+        <v>0.5448207322686165</v>
       </c>
       <c r="L11" t="n">
-        <v>1.546981170483079</v>
+        <v>1.140041705580794</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5074643564280188</v>
+        <v>0.584975840759518</v>
       </c>
       <c r="N11" t="n">
-        <v>1.017438729320719</v>
+        <v>1.023172858538171</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5290681646771944</v>
+        <v>0.6098794733675779</v>
       </c>
       <c r="P11" t="n">
-        <v>156.7133152166882</v>
+        <v>156.1447389218002</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.5667537315397</v>
+        <v>249.9981774366516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_22</t>
+          <t>model_19_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9622460074950268</v>
+        <v>0.9485114294031322</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8072661297126923</v>
+        <v>0.8085284204318499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9244689984766493</v>
+        <v>0.9417258447134184</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7130931983374946</v>
+        <v>0.7387770624867744</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9159080123091036</v>
+        <v>0.9246463016014179</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2524611217219072</v>
+        <v>0.3443043086643228</v>
       </c>
       <c r="H12" t="n">
-        <v>1.288812278069098</v>
+        <v>1.280371334217776</v>
       </c>
       <c r="I12" t="n">
-        <v>0.350178737210627</v>
+        <v>0.7183673806111729</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7256304634040917</v>
+        <v>0.4055233926402771</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5379046003073593</v>
+        <v>0.5619453918361348</v>
       </c>
       <c r="L12" t="n">
-        <v>1.418087431453479</v>
+        <v>1.130398886045706</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5024550942342084</v>
+        <v>0.5867744955809879</v>
       </c>
       <c r="N12" t="n">
-        <v>1.017096147549422</v>
+        <v>1.023315579138204</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5238456478211913</v>
+        <v>0.6117547006485264</v>
       </c>
       <c r="P12" t="n">
-        <v>156.7529960310009</v>
+        <v>156.1324587888852</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.6064345458523</v>
+        <v>249.9858973037366</v>
       </c>
     </row>
     <row r="13">
@@ -1127,767 +1127,767 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.96136418125401</v>
+        <v>0.9481705749566266</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8072428858731023</v>
+        <v>0.807841097969044</v>
       </c>
       <c r="D13" t="n">
-        <v>0.935096600127074</v>
+        <v>0.9399147345838171</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7281615111985238</v>
+        <v>0.7306810391170833</v>
       </c>
       <c r="F13" t="n">
-        <v>0.922738335780617</v>
+        <v>0.92230672282597</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2583578978560225</v>
+        <v>0.3465836039175964</v>
       </c>
       <c r="H13" t="n">
-        <v>1.288967709731464</v>
+        <v>1.284967462691388</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3009067819807903</v>
+        <v>0.7406936148294426</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6875204333151974</v>
+        <v>0.4180916873506368</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4942136076479938</v>
+        <v>0.5793926510900398</v>
       </c>
       <c r="L13" t="n">
-        <v>1.561181231775016</v>
+        <v>1.12078893475905</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5082891872310707</v>
+        <v>0.5887135159970394</v>
       </c>
       <c r="N13" t="n">
-        <v>1.017495465092524</v>
+        <v>1.023469928321528</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5299281102351674</v>
+        <v>0.6137762691780149</v>
       </c>
       <c r="P13" t="n">
-        <v>156.7068189086852</v>
+        <v>156.1192624166167</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.5602574235366</v>
+        <v>249.9727009314681</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_23</t>
+          <t>model_19_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9622774309594765</v>
+        <v>0.947805116974302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8072298408174267</v>
+        <v>0.807131316100324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9233713646015679</v>
+        <v>0.9380734163943489</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7116743312450984</v>
+        <v>0.7224332400144038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9152297536351262</v>
+        <v>0.9199263784526063</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2522509928704394</v>
+        <v>0.3490274231281796</v>
       </c>
       <c r="H14" t="n">
-        <v>1.289054942078834</v>
+        <v>1.289713777315764</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3552676151090196</v>
+        <v>0.7633922351377928</v>
       </c>
       <c r="J14" t="n">
-        <v>0.729218991733843</v>
+        <v>0.4308955992343882</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5422431641937533</v>
+        <v>0.5971439171860905</v>
       </c>
       <c r="L14" t="n">
-        <v>1.406108335021469</v>
+        <v>1.111204678015698</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5022459485853912</v>
+        <v>0.590785429008011</v>
       </c>
       <c r="N14" t="n">
-        <v>1.017081918056086</v>
+        <v>1.023635418728618</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5236275984091128</v>
+        <v>0.6159363878153148</v>
       </c>
       <c r="P14" t="n">
-        <v>156.7546613673979</v>
+        <v>156.1052095671363</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.6080998822493</v>
+        <v>249.9586480819877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_10</t>
+          <t>model_19_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9612288327895353</v>
+        <v>0.9474159938575378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8071970169253555</v>
+        <v>0.8063993463422862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9359076694270018</v>
+        <v>0.9362031736960559</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7294660225733979</v>
+        <v>0.7140421342754806</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9232901587784781</v>
+        <v>0.9175072115547138</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2592629736611867</v>
+        <v>0.3516294912017291</v>
       </c>
       <c r="H15" t="n">
-        <v>1.289274435596254</v>
+        <v>1.294608462458174</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2971464820044791</v>
+        <v>0.786447418720854</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6842211277986303</v>
+        <v>0.4439219808364216</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4906838049015547</v>
+        <v>0.6151846997786378</v>
       </c>
       <c r="L15" t="n">
-        <v>1.575529072711287</v>
+        <v>1.10165312786653</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5091787246745358</v>
+        <v>0.592983550532162</v>
       </c>
       <c r="N15" t="n">
-        <v>1.017556754963229</v>
+        <v>1.023811625423002</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5308555171291971</v>
+        <v>0.6182280879234877</v>
       </c>
       <c r="P15" t="n">
-        <v>156.6998247801456</v>
+        <v>156.0903544791012</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.553263294997</v>
+        <v>249.9437929939526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_24</t>
+          <t>model_19_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9623017764134878</v>
+        <v>0.9470042468316303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8071879785166822</v>
+        <v>0.8056456055115684</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9222558112888255</v>
+        <v>0.934305317032595</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7102499608869128</v>
+        <v>0.7055201189082906</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9145438912902695</v>
+        <v>0.9150515956505516</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2520881947073657</v>
+        <v>0.3543828454598932</v>
       </c>
       <c r="H16" t="n">
-        <v>1.28933487547667</v>
+        <v>1.299648730863841</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3604395715569491</v>
+        <v>0.8098430100151617</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7328214386506819</v>
+        <v>0.4571515869986313</v>
       </c>
       <c r="K16" t="n">
-        <v>0.546630365883314</v>
+        <v>0.6334972985068965</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39425285333525</v>
+        <v>1.092127699927147</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5020838522670946</v>
+        <v>0.5953006345199819</v>
       </c>
       <c r="N16" t="n">
-        <v>1.017070893699553</v>
+        <v>1.023998076906432</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5234586013149606</v>
+        <v>0.6206438149736943</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7559525474032</v>
+        <v>156.0747549317626</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.6093910622546</v>
+        <v>249.928193446614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_9</t>
+          <t>model_19_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9610830898269939</v>
+        <v>0.9465709602621852</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8071428698701784</v>
+        <v>0.8048706629811592</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9366884210251603</v>
+        <v>0.9323814609790965</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7307561818543968</v>
+        <v>0.6968803480394489</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9238281574235451</v>
+        <v>0.9125622343492831</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2602375575227863</v>
+        <v>0.3572802347448743</v>
       </c>
       <c r="H17" t="n">
-        <v>1.289636517203547</v>
+        <v>1.30483077513297</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2935267417229496</v>
+        <v>0.8335591055471877</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6809581208865891</v>
+        <v>0.4705639972093156</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4872424313047693</v>
+        <v>0.6520615513782516</v>
       </c>
       <c r="L17" t="n">
-        <v>1.590020796567288</v>
+        <v>1.082633640333455</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5101348424904795</v>
+        <v>0.5977292319645027</v>
       </c>
       <c r="N17" t="n">
-        <v>1.017622751776456</v>
+        <v>1.024194282145426</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5318523388600023</v>
+        <v>0.6231758028393181</v>
       </c>
       <c r="P17" t="n">
-        <v>156.6923207646814</v>
+        <v>156.0584696677143</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.5457592795328</v>
+        <v>249.9119081825658</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_8</t>
+          <t>model_19_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9609266812686206</v>
+        <v>0.9461171857696198</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8070802278861801</v>
+        <v>0.8040752314649228</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9374378259542375</v>
+        <v>0.9304328505063965</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7320316635335373</v>
+        <v>0.6881344002304829</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9243518509724471</v>
+        <v>0.9100413616822602</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2612834622728241</v>
+        <v>0.3603146268660988</v>
       </c>
       <c r="H18" t="n">
-        <v>1.290055404438984</v>
+        <v>1.310149829344668</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2900523316604463</v>
+        <v>0.8575803580942375</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6777322358377331</v>
+        <v>0.4841412368694703</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4838925619909277</v>
+        <v>0.6708607982466145</v>
       </c>
       <c r="L18" t="n">
-        <v>1.604661007911491</v>
+        <v>1.073170532454179</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5111589403236767</v>
+        <v>0.6002621317941844</v>
       </c>
       <c r="N18" t="n">
-        <v>1.017693578293455</v>
+        <v>1.024399764934512</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5329200346581334</v>
+        <v>0.6258165334585748</v>
       </c>
       <c r="P18" t="n">
-        <v>156.684298797301</v>
+        <v>156.0415553313976</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.5377373121524</v>
+        <v>249.894993846249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_7</t>
+          <t>model_19_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9607593009771359</v>
+        <v>0.945643932676248</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8070088555659424</v>
+        <v>0.8032600159059731</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9381550080974359</v>
+        <v>0.9284607868522923</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7332918449508159</v>
+        <v>0.6792948108635426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9248609293220508</v>
+        <v>0.9074913581865276</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2624027350526973</v>
+        <v>0.3634792724806053</v>
       </c>
       <c r="H19" t="n">
-        <v>1.290532671473053</v>
+        <v>1.315601179541086</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2867273136917969</v>
+        <v>0.8818907268096732</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6745450474528838</v>
+        <v>0.4978638460084441</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4806361805723404</v>
+        <v>0.6898772864090587</v>
       </c>
       <c r="L19" t="n">
-        <v>1.619450639948477</v>
+        <v>1.063755124444441</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5122526086343507</v>
+        <v>0.602892421979747</v>
       </c>
       <c r="N19" t="n">
-        <v>1.017769373142429</v>
+        <v>1.024614068222076</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5340602626929984</v>
+        <v>0.628558800542788</v>
       </c>
       <c r="P19" t="n">
-        <v>156.6757495974948</v>
+        <v>156.024066011392</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.5291881123462</v>
+        <v>249.8775045262434</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_6</t>
+          <t>model_19_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.960580678191477</v>
+        <v>0.9451523888491518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8069284663302816</v>
+        <v>0.8024259638810707</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9388387629405236</v>
+        <v>0.9264667293730371</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7345353013258014</v>
+        <v>0.6703763396249492</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9253545437950728</v>
+        <v>0.904914965986264</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2635971864428807</v>
+        <v>0.3667662283157497</v>
       </c>
       <c r="H20" t="n">
-        <v>1.291070234662075</v>
+        <v>1.321178489272066</v>
       </c>
       <c r="I20" t="n">
-        <v>0.28355727221631</v>
+        <v>0.9064722216613101</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6714001592160936</v>
+        <v>0.5117089116380884</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4774787157162018</v>
+        <v>0.7090905666496993</v>
       </c>
       <c r="L20" t="n">
-        <v>1.634390325810843</v>
+        <v>1.05562133565383</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5134171660968113</v>
+        <v>0.6056122755656045</v>
       </c>
       <c r="N20" t="n">
-        <v>1.017850258932161</v>
+        <v>1.024836654106045</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5352743977776021</v>
+        <v>0.6313944439266685</v>
       </c>
       <c r="P20" t="n">
-        <v>156.6666662999924</v>
+        <v>156.0060612279033</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.5201048148438</v>
+        <v>249.8594997427547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_5</t>
+          <t>model_19_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9603905454112572</v>
+        <v>0.9446435316664448</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8068388591916447</v>
+        <v>0.801574014494546</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9394881211391838</v>
+        <v>0.9244519445281061</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7357621454959553</v>
+        <v>0.6613913764386026</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9258324306478872</v>
+        <v>0.9023145211737155</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2648686052196911</v>
+        <v>0.3701689586395829</v>
       </c>
       <c r="H21" t="n">
-        <v>1.291669438010743</v>
+        <v>1.326875478742622</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2805467013325927</v>
+        <v>0.9313092305279401</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6682972857444474</v>
+        <v>0.5256571995976432</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4744218544906094</v>
+        <v>0.7284832177098537</v>
       </c>
       <c r="L21" t="n">
-        <v>1.649483185934781</v>
+        <v>1.04753197530871</v>
       </c>
       <c r="M21" t="n">
-        <v>0.514653869333255</v>
+        <v>0.608415120324588</v>
       </c>
       <c r="N21" t="n">
-        <v>1.017936356794902</v>
+        <v>1.0250670800001</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5365637500311499</v>
+        <v>0.6343166115897305</v>
       </c>
       <c r="P21" t="n">
-        <v>156.6570428106392</v>
+        <v>155.9875914652052</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.5104813254906</v>
+        <v>249.8410299800566</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_4</t>
+          <t>model_19_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9601884779818662</v>
+        <v>0.9441183982176372</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8067397481242831</v>
+        <v>0.8007051024120405</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9401016356660813</v>
+        <v>0.9224175109209012</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7369710664001496</v>
+        <v>0.6523514365907124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9262937410806</v>
+        <v>0.8996921148564004</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2662198310504634</v>
+        <v>0.3736805284297766</v>
       </c>
       <c r="H22" t="n">
-        <v>1.292332194174555</v>
+        <v>1.332685897839309</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2777023097853294</v>
+        <v>0.9563884570606614</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6652397429087733</v>
+        <v>0.5396908335169269</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4714710263470514</v>
+        <v>0.7480396452887941</v>
       </c>
       <c r="L22" t="n">
-        <v>1.664732582321893</v>
+        <v>1.03971939867485</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5159649513779626</v>
+        <v>0.6112941423159367</v>
       </c>
       <c r="N22" t="n">
-        <v>1.018027859027079</v>
+        <v>1.025304876278806</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5379306475528148</v>
+        <v>0.637318199507648</v>
       </c>
       <c r="P22" t="n">
-        <v>156.6468657579744</v>
+        <v>155.968708097331</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.5003042728259</v>
+        <v>249.8221466121824</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_3</t>
+          <t>model_19_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9599742598755759</v>
+        <v>0.9435779597541226</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8066309045857004</v>
+        <v>0.7998201562057531</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9406782616484859</v>
+        <v>0.9203650533302998</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7381613828173779</v>
+        <v>0.6432692639509718</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9267380269747428</v>
+        <v>0.8970504153108819</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2676523085136103</v>
+        <v>0.3772944429237891</v>
       </c>
       <c r="H23" t="n">
-        <v>1.293060031418235</v>
+        <v>1.338603537195555</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2750289418398657</v>
+        <v>0.9816898720005237</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6622292536194783</v>
+        <v>0.5537900297685034</v>
       </c>
       <c r="K23" t="n">
-        <v>0.468629097729672</v>
+        <v>0.7677399508845135</v>
       </c>
       <c r="L23" t="n">
-        <v>1.680132928137753</v>
+        <v>1.032135252198779</v>
       </c>
       <c r="M23" t="n">
-        <v>0.517351242883991</v>
+        <v>0.614242983617875</v>
       </c>
       <c r="N23" t="n">
-        <v>1.018124863452569</v>
+        <v>1.025549603130209</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5393759563582737</v>
+        <v>0.6403925790887529</v>
       </c>
       <c r="P23" t="n">
-        <v>156.6361329941181</v>
+        <v>155.9494587613104</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.4895715089695</v>
+        <v>249.8028972761619</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_2</t>
+          <t>model_19_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9597475702304109</v>
+        <v>0.9430231959832691</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8065119971701107</v>
+        <v>0.7989202131047355</v>
       </c>
       <c r="D24" t="n">
-        <v>0.941217175414191</v>
+        <v>0.9182952844588339</v>
       </c>
       <c r="E24" t="n">
-        <v>0.739332094090288</v>
+        <v>0.6341573173563506</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9271647702725492</v>
+        <v>0.8943913078307205</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2691681832146392</v>
+        <v>0.3810041508139388</v>
       </c>
       <c r="H24" t="n">
-        <v>1.293855165853802</v>
+        <v>1.344621460855917</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2725304162260927</v>
+        <v>1.007204689595965</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6592683486895441</v>
+        <v>0.5679354472107245</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4658993824578184</v>
+        <v>0.7875700750407262</v>
       </c>
       <c r="L24" t="n">
-        <v>1.695691017976139</v>
+        <v>1.024599728868635</v>
       </c>
       <c r="M24" t="n">
-        <v>0.518814208763252</v>
+        <v>0.6172553368047448</v>
       </c>
       <c r="N24" t="n">
-        <v>1.018227515367361</v>
+        <v>1.025800816913237</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5409012037237717</v>
+        <v>0.6435331743872184</v>
       </c>
       <c r="P24" t="n">
-        <v>156.6248377566707</v>
+        <v>155.92989001878</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.4782762715221</v>
+        <v>249.7833285336314</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_1</t>
+          <t>model_19_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.959507890744923</v>
+        <v>0.9424550411693285</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8063828129494295</v>
+        <v>0.7980062864128885</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9417164718241546</v>
+        <v>0.9162097601690629</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7404820019296827</v>
+        <v>0.6250257856652879</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9275730436635823</v>
+        <v>0.8917171415305787</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2707709210377189</v>
+        <v>0.3848034046708714</v>
       </c>
       <c r="H25" t="n">
-        <v>1.294719021332335</v>
+        <v>1.350732892852543</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2702155655977606</v>
+        <v>1.032913730145348</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6563600587726202</v>
+        <v>0.5821112686244718</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4632878121851904</v>
+        <v>0.8075124993849101</v>
       </c>
       <c r="L25" t="n">
-        <v>1.71141430093352</v>
+        <v>1.017112178075911</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5203565326175111</v>
+        <v>0.6203252410396271</v>
       </c>
       <c r="N25" t="n">
-        <v>1.018336049473997</v>
+        <v>1.026058094564832</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5425091874975573</v>
+        <v>0.6467337708009575</v>
       </c>
       <c r="P25" t="n">
-        <v>156.6129642508043</v>
+        <v>155.9100454246649</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.4664027656558</v>
+        <v>249.7634839395163</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_0</t>
+          <t>model_19_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.959255159808197</v>
+        <v>0.9418744340277118</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8062430351956944</v>
+        <v>0.7970793256199087</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9421757344213521</v>
+        <v>0.9141095972734369</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7416105390474689</v>
+        <v>0.6158854787951342</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9279625580208888</v>
+        <v>0.88902996194558</v>
       </c>
       <c r="G26" t="n">
-        <v>0.272460933975325</v>
+        <v>0.3886859273003126</v>
       </c>
       <c r="H26" t="n">
-        <v>1.29565371581518</v>
+        <v>1.356931483943462</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2680863207434483</v>
+        <v>1.058803226282498</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6535058186256362</v>
+        <v>0.5963007126566227</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4607962363474175</v>
+        <v>0.8275519694695603</v>
       </c>
       <c r="L26" t="n">
-        <v>1.727290139014048</v>
+        <v>1.009664471458325</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5219779056390462</v>
+        <v>0.6234468119256947</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01845049367176</v>
+        <v>1.026321011006319</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5441995857253239</v>
+        <v>0.6499882334221876</v>
       </c>
       <c r="P26" t="n">
-        <v>156.6005200734291</v>
+        <v>155.8899672926129</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.4539585882805</v>
+        <v>249.7434058074644</v>
       </c>
     </row>
   </sheetData>
